--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Il12rb1</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.568603666666667</v>
+        <v>1.270105666666667</v>
       </c>
       <c r="H2">
-        <v>10.705811</v>
+        <v>3.810317</v>
       </c>
       <c r="I2">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
       <c r="J2">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1866496666666667</v>
+        <v>0.2848286666666667</v>
       </c>
       <c r="N2">
-        <v>0.559949</v>
+        <v>0.854486</v>
       </c>
       <c r="O2">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
       <c r="P2">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
       <c r="Q2">
-        <v>0.6660786848487779</v>
+        <v>0.3617625035624444</v>
       </c>
       <c r="R2">
-        <v>5.994708163639</v>
+        <v>3.255862532062</v>
       </c>
       <c r="S2">
-        <v>0.05102028613058922</v>
+        <v>0.0176838435308906</v>
       </c>
       <c r="T2">
-        <v>0.05102028613058921</v>
+        <v>0.0176838435308906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.568603666666667</v>
+        <v>1.270105666666667</v>
       </c>
       <c r="H3">
-        <v>10.705811</v>
+        <v>3.810317</v>
       </c>
       <c r="I3">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
       <c r="J3">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.908219</v>
       </c>
       <c r="O3">
-        <v>0.5466470204341869</v>
+        <v>0.2730594381596053</v>
       </c>
       <c r="P3">
-        <v>0.546647020434187</v>
+        <v>0.2730594381596053</v>
       </c>
       <c r="Q3">
-        <v>3.459426995623222</v>
+        <v>1.231248477269222</v>
       </c>
       <c r="R3">
-        <v>31.134842960609</v>
+        <v>11.081236295423</v>
       </c>
       <c r="S3">
-        <v>0.2649851424154986</v>
+        <v>0.06018646267997736</v>
       </c>
       <c r="T3">
-        <v>0.2649851424154986</v>
+        <v>0.06018646267997736</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.568603666666667</v>
+        <v>1.270105666666667</v>
       </c>
       <c r="H4">
-        <v>10.705811</v>
+        <v>3.810317</v>
       </c>
       <c r="I4">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
       <c r="J4">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.112113</v>
+        <v>1.351483666666667</v>
       </c>
       <c r="N4">
-        <v>0.336339</v>
+        <v>4.054451</v>
       </c>
       <c r="O4">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
       <c r="P4">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
       <c r="Q4">
-        <v>0.400086862881</v>
+        <v>1.716527063440778</v>
       </c>
       <c r="R4">
-        <v>3.600781765929</v>
+        <v>15.448743570967</v>
       </c>
       <c r="S4">
-        <v>0.03064584813416266</v>
+        <v>0.08390807700496314</v>
       </c>
       <c r="T4">
-        <v>0.03064584813416265</v>
+        <v>0.08390807700496315</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.568603666666667</v>
+        <v>1.270105666666667</v>
       </c>
       <c r="H5">
-        <v>10.705811</v>
+        <v>3.810317</v>
       </c>
       <c r="I5">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
       <c r="J5">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.201019</v>
+        <v>0.23571</v>
       </c>
       <c r="N5">
-        <v>0.603057</v>
+        <v>0.70713</v>
       </c>
       <c r="O5">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
       <c r="P5">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
       <c r="Q5">
-        <v>0.7173571404696666</v>
+        <v>0.29937660669</v>
       </c>
       <c r="R5">
-        <v>6.456214264227</v>
+        <v>2.69438946021</v>
       </c>
       <c r="S5">
-        <v>0.05494811258356518</v>
+        <v>0.01463426700495815</v>
       </c>
       <c r="T5">
-        <v>0.05494811258356518</v>
+        <v>0.01463426700495815</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.568603666666667</v>
+        <v>1.270105666666667</v>
       </c>
       <c r="H6">
-        <v>10.705811</v>
+        <v>3.810317</v>
       </c>
       <c r="I6">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
       <c r="J6">
-        <v>0.4847463399782698</v>
+        <v>0.220415243968963</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.30418</v>
+        <v>0.7087373333333332</v>
       </c>
       <c r="N6">
-        <v>0.91254</v>
+        <v>2.126212</v>
       </c>
       <c r="O6">
-        <v>0.1715267220340053</v>
+        <v>0.1996349842044944</v>
       </c>
       <c r="P6">
-        <v>0.1715267220340054</v>
+        <v>0.1996349842044945</v>
       </c>
       <c r="Q6">
-        <v>1.085497863326667</v>
+        <v>0.9001713032448887</v>
       </c>
       <c r="R6">
-        <v>9.769480769940001</v>
+        <v>8.101541729204</v>
       </c>
       <c r="S6">
-        <v>0.08314695071445415</v>
+        <v>0.04400259374817371</v>
       </c>
       <c r="T6">
-        <v>0.08314695071445415</v>
+        <v>0.04400259374817372</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>4.961635</v>
       </c>
       <c r="I7">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
       <c r="J7">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1866496666666667</v>
+        <v>0.2848286666666667</v>
       </c>
       <c r="N7">
-        <v>0.559949</v>
+        <v>0.854486</v>
       </c>
       <c r="O7">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
       <c r="P7">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
       <c r="Q7">
-        <v>0.3086958396238889</v>
+        <v>0.4710719605122222</v>
       </c>
       <c r="R7">
-        <v>2.778262556615</v>
+        <v>4.23964764461</v>
       </c>
       <c r="S7">
-        <v>0.02364547976566614</v>
+        <v>0.02302715941938437</v>
       </c>
       <c r="T7">
-        <v>0.02364547976566614</v>
+        <v>0.02302715941938437</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>4.961635</v>
       </c>
       <c r="I8">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
       <c r="J8">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.908219</v>
       </c>
       <c r="O8">
-        <v>0.5466470204341869</v>
+        <v>0.2730594381596053</v>
       </c>
       <c r="P8">
-        <v>0.546647020434187</v>
+        <v>0.2730594381596053</v>
       </c>
       <c r="Q8">
         <v>1.603280130896111</v>
@@ -948,10 +948,10 @@
         <v>14.429521178065</v>
       </c>
       <c r="S8">
-        <v>0.1228080298716951</v>
+        <v>0.07837228759685075</v>
       </c>
       <c r="T8">
-        <v>0.1228080298716951</v>
+        <v>0.07837228759685075</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,40 +980,40 @@
         <v>4.961635</v>
       </c>
       <c r="I9">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
       <c r="J9">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.112113</v>
+        <v>1.351483666666667</v>
       </c>
       <c r="N9">
-        <v>0.336339</v>
+        <v>4.054451</v>
       </c>
       <c r="O9">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
       <c r="P9">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
       <c r="Q9">
-        <v>0.185421261585</v>
+        <v>2.235189554153889</v>
       </c>
       <c r="R9">
-        <v>1.668791354265</v>
+        <v>20.116705987385</v>
       </c>
       <c r="S9">
-        <v>0.0142028952974367</v>
+        <v>0.1092615789317583</v>
       </c>
       <c r="T9">
-        <v>0.0142028952974367</v>
+        <v>0.1092615789317583</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>4.961635</v>
       </c>
       <c r="I10">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
       <c r="J10">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.201019</v>
+        <v>0.23571</v>
       </c>
       <c r="N10">
-        <v>0.603057</v>
+        <v>0.70713</v>
       </c>
       <c r="O10">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
       <c r="P10">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
       <c r="Q10">
-        <v>0.3324609686883333</v>
+        <v>0.38983566195</v>
       </c>
       <c r="R10">
-        <v>2.992148718195</v>
+        <v>3.50852095755</v>
       </c>
       <c r="S10">
-        <v>0.02546584080165037</v>
+        <v>0.01905612876071612</v>
       </c>
       <c r="T10">
-        <v>0.02546584080165037</v>
+        <v>0.01905612876071612</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>4.961635</v>
       </c>
       <c r="I11">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
       <c r="J11">
-        <v>0.2246569089028456</v>
+        <v>0.287015486903044</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.30418</v>
+        <v>0.7087373333333332</v>
       </c>
       <c r="N11">
-        <v>0.91254</v>
+        <v>2.126212</v>
       </c>
       <c r="O11">
-        <v>0.1715267220340053</v>
+        <v>0.1996349842044944</v>
       </c>
       <c r="P11">
-        <v>0.1715267220340054</v>
+        <v>0.1996349842044945</v>
       </c>
       <c r="Q11">
-        <v>0.5030767114333333</v>
+        <v>1.172165319624444</v>
       </c>
       <c r="R11">
-        <v>4.5276904029</v>
+        <v>10.54948787662</v>
       </c>
       <c r="S11">
-        <v>0.03853466316639726</v>
+        <v>0.05729833219433446</v>
       </c>
       <c r="T11">
-        <v>0.03853466316639727</v>
+        <v>0.05729833219433447</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5851769999999999</v>
+        <v>1.447887666666667</v>
       </c>
       <c r="H12">
-        <v>1.755531</v>
+        <v>4.343663</v>
       </c>
       <c r="I12">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
       <c r="J12">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1866496666666667</v>
+        <v>0.2848286666666667</v>
       </c>
       <c r="N12">
-        <v>0.559949</v>
+        <v>0.854486</v>
       </c>
       <c r="O12">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
       <c r="P12">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
       <c r="Q12">
-        <v>0.109223091991</v>
+        <v>0.4123999135797778</v>
       </c>
       <c r="R12">
-        <v>0.983007827919</v>
+        <v>3.711599222218</v>
       </c>
       <c r="S12">
-        <v>0.008366268929193631</v>
+        <v>0.02015912503944393</v>
       </c>
       <c r="T12">
-        <v>0.008366268929193631</v>
+        <v>0.02015912503944393</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5851769999999999</v>
+        <v>1.447887666666667</v>
       </c>
       <c r="H13">
-        <v>1.755531</v>
+        <v>4.343663</v>
       </c>
       <c r="I13">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
       <c r="J13">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.908219</v>
       </c>
       <c r="O13">
-        <v>0.5466470204341869</v>
+        <v>0.2730594381596053</v>
       </c>
       <c r="P13">
-        <v>0.546647020434187</v>
+        <v>0.2730594381596053</v>
       </c>
       <c r="Q13">
-        <v>0.5672742899209999</v>
+        <v>1.403591474021889</v>
       </c>
       <c r="R13">
-        <v>5.105468609289</v>
+        <v>12.632323266197</v>
       </c>
       <c r="S13">
-        <v>0.04345206841871415</v>
+        <v>0.0686110134783795</v>
       </c>
       <c r="T13">
-        <v>0.04345206841871416</v>
+        <v>0.0686110134783795</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.5851769999999999</v>
+        <v>1.447887666666667</v>
       </c>
       <c r="H14">
-        <v>1.755531</v>
+        <v>4.343663</v>
       </c>
       <c r="I14">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
       <c r="J14">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.112113</v>
+        <v>1.351483666666667</v>
       </c>
       <c r="N14">
-        <v>0.336339</v>
+        <v>4.054451</v>
       </c>
       <c r="O14">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
       <c r="P14">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
       <c r="Q14">
-        <v>0.065605949001</v>
+        <v>1.956796532668111</v>
       </c>
       <c r="R14">
-        <v>0.5904535410089999</v>
+        <v>17.611168794013</v>
       </c>
       <c r="S14">
-        <v>0.00502528359792777</v>
+        <v>0.09565304133162918</v>
       </c>
       <c r="T14">
-        <v>0.00502528359792777</v>
+        <v>0.09565304133162919</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.5851769999999999</v>
+        <v>1.447887666666667</v>
       </c>
       <c r="H15">
-        <v>1.755531</v>
+        <v>4.343663</v>
       </c>
       <c r="I15">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
       <c r="J15">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.201019</v>
+        <v>0.23571</v>
       </c>
       <c r="N15">
-        <v>0.603057</v>
+        <v>0.70713</v>
       </c>
       <c r="O15">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
       <c r="P15">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
       <c r="Q15">
-        <v>0.117631695363</v>
+        <v>0.34128160191</v>
       </c>
       <c r="R15">
-        <v>1.058685258267</v>
+        <v>3.071534417190001</v>
       </c>
       <c r="S15">
-        <v>0.009010351017026056</v>
+        <v>0.01668268653803806</v>
       </c>
       <c r="T15">
-        <v>0.009010351017026057</v>
+        <v>0.01668268653803806</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.5851769999999999</v>
+        <v>1.447887666666667</v>
       </c>
       <c r="H16">
-        <v>1.755531</v>
+        <v>4.343663</v>
       </c>
       <c r="I16">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
       <c r="J16">
-        <v>0.07948834768037581</v>
+        <v>0.2512676871409801</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.30418</v>
+        <v>0.7087373333333332</v>
       </c>
       <c r="N16">
-        <v>0.91254</v>
+        <v>2.126212</v>
       </c>
       <c r="O16">
-        <v>0.1715267220340053</v>
+        <v>0.1996349842044944</v>
       </c>
       <c r="P16">
-        <v>0.1715267220340054</v>
+        <v>0.1996349842044945</v>
       </c>
       <c r="Q16">
-        <v>0.17799913986</v>
+        <v>1.026172043839555</v>
       </c>
       <c r="R16">
-        <v>1.60199225874</v>
+        <v>9.235548394556</v>
       </c>
       <c r="S16">
-        <v>0.0136343757175142</v>
+        <v>0.05016182075348941</v>
       </c>
       <c r="T16">
-        <v>0.0136343757175142</v>
+        <v>0.05016182075348941</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.554137</v>
+        <v>0.324919</v>
       </c>
       <c r="H17">
-        <v>4.662411</v>
+        <v>0.974757</v>
       </c>
       <c r="I17">
-        <v>0.2111084034385087</v>
+        <v>0.05638672634467276</v>
       </c>
       <c r="J17">
-        <v>0.2111084034385087</v>
+        <v>0.05638672634467275</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.1866496666666667</v>
+        <v>0.2848286666666667</v>
       </c>
       <c r="N17">
-        <v>0.559949</v>
+        <v>0.854486</v>
       </c>
       <c r="O17">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
       <c r="P17">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
       <c r="Q17">
-        <v>0.2900791530043333</v>
+        <v>0.09254624554466667</v>
       </c>
       <c r="R17">
-        <v>2.610712377039</v>
+        <v>0.832916209902</v>
       </c>
       <c r="S17">
-        <v>0.0222194790547308</v>
+        <v>0.004523888765328537</v>
       </c>
       <c r="T17">
-        <v>0.0222194790547308</v>
+        <v>0.004523888765328536</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.554137</v>
+        <v>0.324919</v>
       </c>
       <c r="H18">
-        <v>4.662411</v>
+        <v>0.974757</v>
       </c>
       <c r="I18">
-        <v>0.2111084034385087</v>
+        <v>0.05638672634467276</v>
       </c>
       <c r="J18">
-        <v>0.2111084034385087</v>
+        <v>0.05638672634467275</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.908219</v>
       </c>
       <c r="O18">
-        <v>0.5466470204341869</v>
+        <v>0.2730594381596053</v>
       </c>
       <c r="P18">
-        <v>0.546647020434187</v>
+        <v>0.2730594381596053</v>
       </c>
       <c r="Q18">
-        <v>1.506590250667666</v>
+        <v>0.3149785364203333</v>
       </c>
       <c r="R18">
-        <v>13.559312256009</v>
+        <v>2.834806827783</v>
       </c>
       <c r="S18">
-        <v>0.1154017797282791</v>
+        <v>0.01539692781533576</v>
       </c>
       <c r="T18">
-        <v>0.1154017797282791</v>
+        <v>0.01539692781533576</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.554137</v>
+        <v>0.324919</v>
       </c>
       <c r="H19">
-        <v>4.662411</v>
+        <v>0.974757</v>
       </c>
       <c r="I19">
-        <v>0.2111084034385087</v>
+        <v>0.05638672634467276</v>
       </c>
       <c r="J19">
-        <v>0.2111084034385087</v>
+        <v>0.05638672634467275</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.112113</v>
+        <v>1.351483666666667</v>
       </c>
       <c r="N19">
-        <v>0.336339</v>
+        <v>4.054451</v>
       </c>
       <c r="O19">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
       <c r="P19">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
       <c r="Q19">
-        <v>0.174238961481</v>
+        <v>0.4391227214896667</v>
       </c>
       <c r="R19">
-        <v>1.568150653329</v>
+        <v>3.952104493407</v>
       </c>
       <c r="S19">
-        <v>0.01334635362468564</v>
+        <v>0.02146540180702206</v>
       </c>
       <c r="T19">
-        <v>0.01334635362468564</v>
+        <v>0.02146540180702206</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.554137</v>
+        <v>0.324919</v>
       </c>
       <c r="H20">
-        <v>4.662411</v>
+        <v>0.974757</v>
       </c>
       <c r="I20">
-        <v>0.2111084034385087</v>
+        <v>0.05638672634467276</v>
       </c>
       <c r="J20">
-        <v>0.2111084034385087</v>
+        <v>0.05638672634467275</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.201019</v>
+        <v>0.23571</v>
       </c>
       <c r="N20">
-        <v>0.603057</v>
+        <v>0.70713</v>
       </c>
       <c r="O20">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
       <c r="P20">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
       <c r="Q20">
-        <v>0.3124110656029999</v>
+        <v>0.07658665749</v>
       </c>
       <c r="R20">
-        <v>2.811699590427</v>
+        <v>0.6892799174100001</v>
       </c>
       <c r="S20">
-        <v>0.02393005859517347</v>
+        <v>0.003743744733824508</v>
       </c>
       <c r="T20">
-        <v>0.02393005859517347</v>
+        <v>0.003743744733824507</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.324919</v>
+      </c>
+      <c r="H21">
+        <v>0.974757</v>
+      </c>
+      <c r="I21">
+        <v>0.05638672634467276</v>
+      </c>
+      <c r="J21">
+        <v>0.05638672634467275</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.7087373333333332</v>
+      </c>
+      <c r="N21">
+        <v>2.126212</v>
+      </c>
+      <c r="O21">
+        <v>0.1996349842044944</v>
+      </c>
+      <c r="P21">
+        <v>0.1996349842044945</v>
+      </c>
+      <c r="Q21">
+        <v>0.2302822256093333</v>
+      </c>
+      <c r="R21">
+        <v>2.072540030484</v>
+      </c>
+      <c r="S21">
+        <v>0.0112567632231619</v>
+      </c>
+      <c r="T21">
+        <v>0.0112567632231619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.065540666666667</v>
+      </c>
+      <c r="H22">
+        <v>3.196622</v>
+      </c>
+      <c r="I22">
+        <v>0.1849148556423401</v>
+      </c>
+      <c r="J22">
+        <v>0.1849148556423401</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2848286666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.854486</v>
+      </c>
+      <c r="O22">
+        <v>0.08022967564521397</v>
+      </c>
+      <c r="P22">
+        <v>0.08022967564521397</v>
+      </c>
+      <c r="Q22">
+        <v>0.3034965273657778</v>
+      </c>
+      <c r="R22">
+        <v>2.731468746292</v>
+      </c>
+      <c r="S22">
+        <v>0.01483565889016651</v>
+      </c>
+      <c r="T22">
+        <v>0.01483565889016651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.065540666666667</v>
+      </c>
+      <c r="H23">
+        <v>3.196622</v>
+      </c>
+      <c r="I23">
+        <v>0.1849148556423401</v>
+      </c>
+      <c r="J23">
+        <v>0.1849148556423401</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9694063333333333</v>
+      </c>
+      <c r="N23">
+        <v>2.908219</v>
+      </c>
+      <c r="O23">
+        <v>0.2730594381596053</v>
+      </c>
+      <c r="P23">
+        <v>0.2730594381596053</v>
+      </c>
+      <c r="Q23">
+        <v>1.032941870690889</v>
+      </c>
+      <c r="R23">
+        <v>9.296476836218</v>
+      </c>
+      <c r="S23">
+        <v>0.05049274658906192</v>
+      </c>
+      <c r="T23">
+        <v>0.05049274658906191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.065540666666667</v>
+      </c>
+      <c r="H24">
+        <v>3.196622</v>
+      </c>
+      <c r="I24">
+        <v>0.1849148556423401</v>
+      </c>
+      <c r="J24">
+        <v>0.1849148556423401</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.351483666666667</v>
+      </c>
+      <c r="N24">
+        <v>4.054451</v>
+      </c>
+      <c r="O24">
+        <v>0.3806818235166093</v>
+      </c>
+      <c r="P24">
+        <v>0.3806818235166093</v>
+      </c>
+      <c r="Q24">
+        <v>1.440060807169111</v>
+      </c>
+      <c r="R24">
+        <v>12.960547264522</v>
+      </c>
+      <c r="S24">
+        <v>0.07039372444123661</v>
+      </c>
+      <c r="T24">
+        <v>0.07039372444123661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.554137</v>
-      </c>
-      <c r="H21">
-        <v>4.662411</v>
-      </c>
-      <c r="I21">
-        <v>0.2111084034385087</v>
-      </c>
-      <c r="J21">
-        <v>0.2111084034385087</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.30418</v>
-      </c>
-      <c r="N21">
-        <v>0.91254</v>
-      </c>
-      <c r="O21">
-        <v>0.1715267220340053</v>
-      </c>
-      <c r="P21">
-        <v>0.1715267220340054</v>
-      </c>
-      <c r="Q21">
-        <v>0.47273739266</v>
-      </c>
-      <c r="R21">
-        <v>4.254636533939999</v>
-      </c>
-      <c r="S21">
-        <v>0.03621073243563974</v>
-      </c>
-      <c r="T21">
-        <v>0.03621073243563975</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.065540666666667</v>
+      </c>
+      <c r="H25">
+        <v>3.196622</v>
+      </c>
+      <c r="I25">
+        <v>0.1849148556423401</v>
+      </c>
+      <c r="J25">
+        <v>0.1849148556423401</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.23571</v>
+      </c>
+      <c r="N25">
+        <v>0.70713</v>
+      </c>
+      <c r="O25">
+        <v>0.066394078474077</v>
+      </c>
+      <c r="P25">
+        <v>0.066394078474077</v>
+      </c>
+      <c r="Q25">
+        <v>0.25115859054</v>
+      </c>
+      <c r="R25">
+        <v>2.26042731486</v>
+      </c>
+      <c r="S25">
+        <v>0.01227725143654015</v>
+      </c>
+      <c r="T25">
+        <v>0.01227725143654015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.065540666666667</v>
+      </c>
+      <c r="H26">
+        <v>3.196622</v>
+      </c>
+      <c r="I26">
+        <v>0.1849148556423401</v>
+      </c>
+      <c r="J26">
+        <v>0.1849148556423401</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.7087373333333332</v>
+      </c>
+      <c r="N26">
+        <v>2.126212</v>
+      </c>
+      <c r="O26">
+        <v>0.1996349842044944</v>
+      </c>
+      <c r="P26">
+        <v>0.1996349842044945</v>
+      </c>
+      <c r="Q26">
+        <v>0.7551884506515555</v>
+      </c>
+      <c r="R26">
+        <v>6.796696055863999</v>
+      </c>
+      <c r="S26">
+        <v>0.03691547428533494</v>
+      </c>
+      <c r="T26">
+        <v>0.03691547428533494</v>
       </c>
     </row>
   </sheetData>
